--- a/medicine/Psychotrope/Œnococcus_œni/Œnococcus_œni.xlsx
+++ b/medicine/Psychotrope/Œnococcus_œni/Œnococcus_œni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92nococcus_%C5%93ni</t>
+          <t>Œnococcus_œni</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oenococcus oeni (anciennement Leuconostoc oenos remplacé en 1995) est une bactérie lactique du genre Oenococcus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92nococcus_%C5%93ni</t>
+          <t>Œnococcus_œni</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Utilisation œnologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce bactérienne est responsable de la fermentation malolactique sur les vins, qui intervient normalement après la fermentation alcoolique des levures.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92nococcus_%C5%93ni</t>
+          <t>Œnococcus_œni</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Caractéristiques morphologiques et biochimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Des coques sphériques ou ovalaires
 Gram +
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92nococcus_%C5%93ni</t>
+          <t>Œnococcus_œni</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,23 +599,181 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Métabolisme des sucres
-Le métabolisme des sucres est hétérofermentaire[1], et transforme :
+          <t>Métabolisme des sucres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le métabolisme des sucres est hétérofermentaire, et transforme :
 Les pentoses en lactate et acétate
 1 pentose → 1 lactate  +  1 acétate  +  2 ATP
 Les hexoses en lactate, acétate, éthanol et CO2
-1 hexose → 1 lactate + 1 CO2 + (1 acétate + 2 ATP) / (1 éthanol + 1 ATP)
-Métabolismes des acides
-Acide L-malique en acide L-lactique
-A l'aide de l’enzyme malolactique, la réaction se produit tel que : 
+1 hexose → 1 lactate + 1 CO2 + (1 acétate + 2 ATP) / (1 éthanol + 1 ATP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Œnococcus_œni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92nococcus_%C5%93ni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Métabolisme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Métabolismes des acides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Acide L-malique en acide L-lactique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A l'aide de l’enzyme malolactique, la réaction se produit tel que : 
 COOH-CH2-CHOH-COOH → CH3-CHOH-COOH + CO2
-Acide citrique
-À partir de la dégradation du citrate, productions possible d'acétate, de lactate, d'éthanol, de lipides ou d'acides gras, et de substances acétoïniques comme le diacétyle, l’acétoïne, et le 2,3-butanediol. Ces dernières substances sont des composés aromatiques caractéristiques de notes de beurre/lacté, pouvant être recherchées dans les vins blancs.
-Autres métabolismes
-Décarboxylation de l’histidine et de la tyrosine
-Production non désirée d'histamine et de tyramine qui sont des amines biogènes. 
-Dégradation de l'arginine
-La réaction, grâce à l’enzyme agrinine déiminase, produit en faible quantité un composé cancérigène :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Œnococcus_œni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92nococcus_%C5%93ni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Métabolisme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Métabolismes des acides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Acide citrique</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de la dégradation du citrate, productions possible d'acétate, de lactate, d'éthanol, de lipides ou d'acides gras, et de substances acétoïniques comme le diacétyle, l’acétoïne, et le 2,3-butanediol. Ces dernières substances sont des composés aromatiques caractéristiques de notes de beurre/lacté, pouvant être recherchées dans les vins blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Œnococcus_œni</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92nococcus_%C5%93ni</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Métabolisme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres métabolismes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Décarboxylation de l’histidine et de la tyrosine</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Production non désirée d'histamine et de tyramine qui sont des amines biogènes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Œnococcus_œni</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92nococcus_%C5%93ni</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Métabolisme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres métabolismes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dégradation de l'arginine</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La réaction, grâce à l’enzyme agrinine déiminase, produit en faible quantité un composé cancérigène :
 arginine → citrulline  → carbamate d’éthyle</t>
         </is>
       </c>
